--- a/img/Pasta1.xlsx
+++ b/img/Pasta1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Excel\img\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D87BC67-4B24-4E8E-B38D-14881CA35DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F89505-5D18-4186-A49C-4BC50EED4865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="15750" windowHeight="15585" firstSheet="1" activeTab="3" xr2:uid="{C2FA15AC-0F41-44BE-87C6-72DCCCBD12E9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="3" xr2:uid="{C2FA15AC-0F41-44BE-87C6-72DCCCBD12E9}"/>
   </bookViews>
   <sheets>
     <sheet name="operação simples" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="49">
   <si>
     <t>FRETE</t>
   </si>
@@ -213,6 +213,9 @@
   </si>
   <si>
     <t>QUANTAS VENDAS DE PRODUTO A ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formatação Condicional / Regras de Realce de Celulas /  </t>
   </si>
 </sst>
 </file>
@@ -221,9 +224,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="172" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,9 +304,9 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -323,7 +326,7 @@
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -331,16 +334,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -690,16 +683,16 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="1.85546875" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="2.42578125" customWidth="1"/>
-    <col min="8" max="8" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="1.875" customWidth="1"/>
+    <col min="6" max="6" width="11.25" customWidth="1"/>
+    <col min="7" max="7" width="2.375" customWidth="1"/>
+    <col min="8" max="8" width="28.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -719,7 +712,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -741,7 +734,7 @@
         <v>18.333333333333336</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -759,7 +752,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -780,19 +773,19 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="F5" s="1"/>
       <c r="H5" s="3">
         <f>F7*1.1</f>
         <v>544.5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="F6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="F7" s="3">
         <f>SUM(F2:F4)</f>
         <v>495</v>
@@ -811,14 +804,14 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="3.5703125" customWidth="1"/>
+    <col min="1" max="4" width="13.25" customWidth="1"/>
+    <col min="5" max="5" width="3.625" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
@@ -839,7 +832,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -860,7 +853,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
@@ -881,7 +874,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -902,7 +895,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
@@ -916,7 +909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
@@ -930,7 +923,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
@@ -944,7 +937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
@@ -958,7 +951,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="6" t="s">
         <v>4</v>
       </c>
@@ -972,7 +965,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
@@ -986,7 +979,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
@@ -1013,14 +1006,14 @@
       <selection sqref="A1:E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.875" customWidth="1"/>
+    <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -1049,7 +1042,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -1081,7 +1074,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
@@ -1101,7 +1094,7 @@
         <v>5</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" ref="H3:J4" si="1">SUMIFS($C$2:$C$21,$B$2:$B$21,H$1,$A$2:$A$21,$G3)</f>
+        <f t="shared" ref="H3:H4" si="1">SUMIFS($C$2:$C$21,$B$2:$B$21,H$1,$A$2:$A$21,$G3)</f>
         <v>0</v>
       </c>
       <c r="I3" s="2">
@@ -1113,7 +1106,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1145,7 +1138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
@@ -1162,7 +1155,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
@@ -1179,7 +1172,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
@@ -1196,7 +1189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
@@ -1213,7 +1206,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="6" t="s">
         <v>4</v>
       </c>
@@ -1230,7 +1223,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
@@ -1247,7 +1240,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
@@ -1264,7 +1257,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
@@ -1281,7 +1274,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="7" t="s">
         <v>5</v>
       </c>
@@ -1298,7 +1291,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="5" t="s">
         <v>6</v>
       </c>
@@ -1315,7 +1308,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="6" t="s">
         <v>4</v>
       </c>
@@ -1332,7 +1325,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="7" t="s">
         <v>5</v>
       </c>
@@ -1349,7 +1342,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="6" t="s">
         <v>4</v>
       </c>
@@ -1366,7 +1359,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="7" t="s">
         <v>5</v>
       </c>
@@ -1383,7 +1376,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="6" t="s">
         <v>4</v>
       </c>
@@ -1400,7 +1393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="5" t="s">
         <v>6</v>
       </c>
@@ -1417,7 +1410,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="5" t="s">
         <v>6</v>
       </c>
@@ -1441,22 +1434,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ECBD136-FA51-4129-A53A-780374D55C6B}">
-  <dimension ref="B3:F23"/>
+  <dimension ref="B3:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="3" max="3" width="11.875" customWidth="1"/>
+    <col min="4" max="4" width="11.125" customWidth="1"/>
+    <col min="5" max="5" width="9.25" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="8" max="8" width="21.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -1473,7 +1467,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -1490,7 +1484,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -1507,7 +1501,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6">
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -1524,7 +1518,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -1541,7 +1535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -1558,7 +1552,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6">
       <c r="B9" t="s">
         <v>4</v>
       </c>
@@ -1575,7 +1569,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6">
       <c r="B10" t="s">
         <v>5</v>
       </c>
@@ -1592,7 +1586,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6">
       <c r="B11" t="s">
         <v>4</v>
       </c>
@@ -1609,7 +1603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6">
       <c r="B12" t="s">
         <v>6</v>
       </c>
@@ -1626,7 +1620,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6">
       <c r="B13" t="s">
         <v>6</v>
       </c>
@@ -1643,7 +1637,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6">
       <c r="B14" t="s">
         <v>4</v>
       </c>
@@ -1660,7 +1654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6">
       <c r="B15" t="s">
         <v>5</v>
       </c>
@@ -1677,7 +1671,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6">
       <c r="B16" t="s">
         <v>6</v>
       </c>
@@ -1694,7 +1688,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8">
       <c r="B17" t="s">
         <v>4</v>
       </c>
@@ -1711,7 +1705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8">
       <c r="B18" t="s">
         <v>5</v>
       </c>
@@ -1728,7 +1722,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8">
       <c r="B19" t="s">
         <v>4</v>
       </c>
@@ -1745,7 +1739,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8">
       <c r="B20" t="s">
         <v>5</v>
       </c>
@@ -1762,7 +1756,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8">
       <c r="B21" t="s">
         <v>4</v>
       </c>
@@ -1779,7 +1773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8">
       <c r="B22" t="s">
         <v>6</v>
       </c>
@@ -1796,7 +1790,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8">
       <c r="B23" t="s">
         <v>6</v>
       </c>
@@ -1813,9 +1807,14 @@
         <v>30</v>
       </c>
     </row>
+    <row r="26" spans="2:8">
+      <c r="H26" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"PRODUTO A"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1836,15 +1835,15 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="11.125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -1852,7 +1851,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -1869,7 +1868,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
@@ -1888,7 +1887,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1901,14 +1900,14 @@
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="E5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
@@ -1916,7 +1915,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="6" t="s">
         <v>4</v>
       </c>
@@ -1924,7 +1923,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
@@ -1932,7 +1931,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
@@ -1953,16 +1952,16 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.75" customWidth="1"/>
+    <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -1979,7 +1978,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -1998,7 +1997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
@@ -2017,7 +2016,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -2049,13 +2048,13 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -2069,7 +2068,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
@@ -2083,7 +2082,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
@@ -2097,7 +2096,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
@@ -2111,7 +2110,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
@@ -2138,13 +2137,13 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="5" max="5" width="3.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="3.25" customWidth="1"/>
+    <col min="6" max="6" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6">
       <c r="B5" s="8" t="s">
         <v>42</v>
       </c>
@@ -2155,7 +2154,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6">
       <c r="B6" s="8">
         <v>1</v>
       </c>
@@ -2170,7 +2169,7 @@
         <v>1 / A / 25</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6">
       <c r="B7" s="8">
         <v>2</v>
       </c>
@@ -2185,7 +2184,7 @@
         <v>2 / B / 30</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6">
       <c r="B8" s="8">
         <v>3</v>
       </c>
@@ -2200,7 +2199,7 @@
         <v>3 / C / 45</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6">
       <c r="B9" s="8">
         <v>4</v>
       </c>
@@ -2228,15 +2227,15 @@
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
@@ -2256,7 +2255,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9">
       <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
@@ -2277,7 +2276,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9">
       <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
@@ -2294,7 +2293,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9">
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
@@ -2311,7 +2310,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9">
       <c r="B8" s="6" t="s">
         <v>4</v>
       </c>
@@ -2328,7 +2327,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9">
       <c r="B9" s="7" t="s">
         <v>5</v>
       </c>
@@ -2345,7 +2344,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9">
       <c r="B10" s="6" t="s">
         <v>4</v>
       </c>
@@ -2362,7 +2361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9">
       <c r="B11" s="7" t="s">
         <v>5</v>
       </c>
@@ -2379,7 +2378,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9">
       <c r="B12" s="6" t="s">
         <v>4</v>
       </c>
@@ -2396,7 +2395,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9">
       <c r="B13" s="5" t="s">
         <v>6</v>
       </c>
@@ -2413,7 +2412,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9">
       <c r="B14" s="5" t="s">
         <v>6</v>
       </c>
@@ -2430,7 +2429,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9">
       <c r="B15" s="6" t="s">
         <v>4</v>
       </c>
@@ -2447,7 +2446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9">
       <c r="B16" s="7" t="s">
         <v>5</v>
       </c>
@@ -2464,7 +2463,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6">
       <c r="B17" s="5" t="s">
         <v>6</v>
       </c>
@@ -2481,7 +2480,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6">
       <c r="B18" s="6" t="s">
         <v>4</v>
       </c>
@@ -2498,7 +2497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6">
       <c r="B19" s="7" t="s">
         <v>5</v>
       </c>
@@ -2515,7 +2514,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6">
       <c r="B20" s="6" t="s">
         <v>4</v>
       </c>
@@ -2532,7 +2531,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6">
       <c r="B21" s="7" t="s">
         <v>5</v>
       </c>
@@ -2549,7 +2548,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6">
       <c r="B22" s="6" t="s">
         <v>4</v>
       </c>
@@ -2566,7 +2565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6">
       <c r="B23" s="5" t="s">
         <v>6</v>
       </c>
@@ -2583,7 +2582,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6">
       <c r="B24" s="5" t="s">
         <v>6</v>
       </c>

--- a/img/Pasta1.xlsx
+++ b/img/Pasta1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Excel\img\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F89505-5D18-4186-A49C-4BC50EED4865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A94E08-980C-431A-8127-09EA90FBBE42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="3" xr2:uid="{C2FA15AC-0F41-44BE-87C6-72DCCCBD12E9}"/>
   </bookViews>
@@ -215,7 +215,7 @@
     <t>QUANTAS VENDAS DE PRODUTO A ?</t>
   </si>
   <si>
-    <t xml:space="preserve">Formatação Condicional / Regras de Realce de Celulas /  </t>
+    <t>(Formatação Condicional / Regras de Realce de Celulas / É Igual a ) + ( Formatação Condicional / Regras de Realce de Celulas / É maior que )</t>
   </si>
 </sst>
 </file>
@@ -226,7 +226,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -683,16 +683,16 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="1.875" customWidth="1"/>
-    <col min="6" max="6" width="11.25" customWidth="1"/>
-    <col min="7" max="7" width="2.375" customWidth="1"/>
-    <col min="8" max="8" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="1.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="2.42578125" customWidth="1"/>
+    <col min="8" max="8" width="28.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -712,7 +712,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -734,7 +734,7 @@
         <v>18.333333333333336</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -752,7 +752,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -773,19 +773,19 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F5" s="1"/>
       <c r="H5" s="3">
         <f>F7*1.1</f>
         <v>544.5</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F7" s="3">
         <f>SUM(F2:F4)</f>
         <v>495</v>
@@ -804,14 +804,14 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="13.25" customWidth="1"/>
-    <col min="5" max="5" width="3.625" customWidth="1"/>
+    <col min="1" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="3.5703125" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
@@ -832,7 +832,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -853,7 +853,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
@@ -874,7 +874,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -895,7 +895,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
@@ -909,7 +909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
@@ -923,7 +923,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
@@ -937,7 +937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
@@ -951,7 +951,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>4</v>
       </c>
@@ -965,7 +965,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
@@ -979,7 +979,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
@@ -1006,14 +1006,14 @@
       <selection sqref="A1:E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.875" customWidth="1"/>
-    <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>4</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>5</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>6</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>4</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>5</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>4</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>5</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>4</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>6</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>6</v>
       </c>
@@ -1437,20 +1437,20 @@
   <dimension ref="B3:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="3" max="3" width="11.875" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="9.25" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="8" max="8" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>4</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>5</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>4</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>6</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="2:6">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>6</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="2:6">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>4</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:6">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>5</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="2:6">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>6</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>4</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>5</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>4</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>5</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>4</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>6</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>6</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="2:8">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H26" t="s">
         <v>48</v>
       </c>
@@ -1824,6 +1824,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1835,15 +1836,15 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="11.125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -1851,7 +1852,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -1868,7 +1869,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
@@ -1887,7 +1888,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1900,14 +1901,14 @@
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
@@ -1915,7 +1916,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>4</v>
       </c>
@@ -1923,7 +1924,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
@@ -1931,7 +1932,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
@@ -1952,16 +1953,16 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.75" customWidth="1"/>
-    <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3" customWidth="1"/>
-    <col min="7" max="7" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -1978,7 +1979,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -1997,7 +1998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
@@ -2016,7 +2017,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -2048,13 +2049,13 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -2068,7 +2069,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
@@ -2082,7 +2083,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
@@ -2096,7 +2097,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
@@ -2110,7 +2111,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
@@ -2137,13 +2138,13 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="3.25" customWidth="1"/>
-    <col min="6" max="6" width="14.625" customWidth="1"/>
+    <col min="5" max="5" width="3.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
         <v>42</v>
       </c>
@@ -2154,7 +2155,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="8">
         <v>1</v>
       </c>
@@ -2169,7 +2170,7 @@
         <v>1 / A / 25</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="8">
         <v>2</v>
       </c>
@@ -2184,7 +2185,7 @@
         <v>2 / B / 30</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="8">
         <v>3</v>
       </c>
@@ -2199,7 +2200,7 @@
         <v>3 / C / 45</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="8">
         <v>4</v>
       </c>
@@ -2227,15 +2228,15 @@
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:9">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
@@ -2255,7 +2256,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="2:9">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
@@ -2276,7 +2277,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
@@ -2293,7 +2294,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
@@ -2310,7 +2311,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>4</v>
       </c>
@@ -2327,7 +2328,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>5</v>
       </c>
@@ -2344,7 +2345,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>4</v>
       </c>
@@ -2361,7 +2362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:9">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>5</v>
       </c>
@@ -2378,7 +2379,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="2:9">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
         <v>4</v>
       </c>
@@ -2395,7 +2396,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="2:9">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>6</v>
       </c>
@@ -2412,7 +2413,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="2:9">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>6</v>
       </c>
@@ -2429,7 +2430,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="2:9">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>4</v>
       </c>
@@ -2446,7 +2447,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:9">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
         <v>5</v>
       </c>
@@ -2463,7 +2464,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>6</v>
       </c>
@@ -2480,7 +2481,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
         <v>4</v>
       </c>
@@ -2497,7 +2498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
         <v>5</v>
       </c>
@@ -2514,7 +2515,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
         <v>4</v>
       </c>
@@ -2531,7 +2532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
         <v>5</v>
       </c>
@@ -2548,7 +2549,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
         <v>4</v>
       </c>
@@ -2565,7 +2566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>6</v>
       </c>
@@ -2582,7 +2583,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>6</v>
       </c>

--- a/img/Pasta1.xlsx
+++ b/img/Pasta1.xlsx
@@ -5,26 +5,26 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Excel\img\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leandro.oliveira_geo\devleee\Excel\img\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A94E08-980C-431A-8127-09EA90FBBE42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A56D3AF-78A5-498D-895F-477D150DC23D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="3" xr2:uid="{C2FA15AC-0F41-44BE-87C6-72DCCCBD12E9}"/>
+    <workbookView xWindow="-105" yWindow="8580" windowWidth="14610" windowHeight="7005" firstSheet="1" activeTab="1" xr2:uid="{C2FA15AC-0F41-44BE-87C6-72DCCCBD12E9}"/>
   </bookViews>
   <sheets>
     <sheet name="operação simples" sheetId="1" r:id="rId1"/>
-    <sheet name="somase" sheetId="2" r:id="rId2"/>
-    <sheet name="somases" sheetId="3" r:id="rId3"/>
-    <sheet name="Valores Duplicados" sheetId="10" r:id="rId4"/>
-    <sheet name="procv()" sheetId="4" r:id="rId5"/>
+    <sheet name="Somase()" sheetId="2" r:id="rId2"/>
+    <sheet name="Somases()" sheetId="3" r:id="rId3"/>
+    <sheet name="Formatação" sheetId="10" r:id="rId4"/>
+    <sheet name="Procv()" sheetId="4" r:id="rId5"/>
     <sheet name="SE" sheetId="5" r:id="rId6"/>
     <sheet name="texto para colunas" sheetId="6" r:id="rId7"/>
     <sheet name="Concatenar" sheetId="7" r:id="rId8"/>
     <sheet name="CONTA.SE()" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">somase!$A$1:$D$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Somase()'!$A$1:$D$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="48">
   <si>
     <t>FRETE</t>
   </si>
@@ -213,9 +213,6 @@
   </si>
   <si>
     <t>QUANTAS VENDAS DE PRODUTO A ?</t>
-  </si>
-  <si>
-    <t>(Formatação Condicional / Regras de Realce de Celulas / É Igual a ) + ( Formatação Condicional / Regras de Realce de Celulas / É maior que )</t>
   </si>
 </sst>
 </file>
@@ -242,7 +239,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -270,6 +267,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,7 +305,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -321,6 +324,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -800,7 +807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2562886E-03DF-4D9D-8D41-2B03DF130F68}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -848,10 +855,7 @@
       <c r="F2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2">
-        <f>SUMIF($A$2:$A$11,F2,$B$2:$B$11)</f>
-        <v>400</v>
-      </c>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -869,10 +873,7 @@
       <c r="F3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="2">
-        <f>SUMIF($A$2:$A$11,F3,$B$2:$B$11)</f>
-        <v>450</v>
-      </c>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -890,10 +891,7 @@
       <c r="F4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="2">
-        <f>SUMIF($A$2:$A$11,F4,$B$2:$B$11)</f>
-        <v>600</v>
-      </c>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -1003,7 +1001,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E21"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1061,18 +1059,9 @@
       <c r="G2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="2">
-        <f>SUMIFS($C$2:$C$21,$B$2:$B$21,H$1,$A$2:$A$21,$G2)</f>
-        <v>400</v>
-      </c>
-      <c r="I2" s="2">
-        <f t="shared" ref="I2:J4" si="0">SUMIFS($C$2:$C$21,$B$2:$B$21,I$1,$A$2:$A$21,$G2)</f>
-        <v>200</v>
-      </c>
-      <c r="J2" s="2">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -1093,18 +1082,9 @@
       <c r="G3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="2">
-        <f t="shared" ref="H3:H4" si="1">SUMIFS($C$2:$C$21,$B$2:$B$21,H$1,$A$2:$A$21,$G3)</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
-        <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-      <c r="J3" s="2">
-        <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1125,18 +1105,9 @@
       <c r="G4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="2">
-        <f t="shared" si="1"/>
-        <v>800</v>
-      </c>
-      <c r="I4" s="2">
-        <f t="shared" si="0"/>
-        <v>400</v>
-      </c>
-      <c r="J4" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -1434,10 +1405,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ECBD136-FA51-4129-A53A-780374D55C6B}">
-  <dimension ref="B3:H26"/>
+  <dimension ref="B3:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1688,7 +1659,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>4</v>
       </c>
@@ -1705,7 +1676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>5</v>
       </c>
@@ -1722,7 +1693,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>4</v>
       </c>
@@ -1739,7 +1710,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>5</v>
       </c>
@@ -1756,7 +1727,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>4</v>
       </c>
@@ -1773,7 +1744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>6</v>
       </c>
@@ -1790,7 +1761,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>6</v>
       </c>
@@ -1805,11 +1776,6 @@
       </c>
       <c r="F23">
         <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H26" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1832,16 +1798,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B9AA602-C6A5-47D3-821E-87AABC05C900}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9.140625" style="12"/>
+    <col min="5" max="5" width="9.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="13" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1942,6 +1910,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2046,7 +2015,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2135,7 +2104,7 @@
   <dimension ref="B5:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/img/Pasta1.xlsx
+++ b/img/Pasta1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leandro.oliveira_geo\devleee\Excel\img\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A56D3AF-78A5-498D-895F-477D150DC23D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61513FE-F868-4660-ACC4-42070C23061B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="8580" windowWidth="14610" windowHeight="7005" firstSheet="1" activeTab="1" xr2:uid="{C2FA15AC-0F41-44BE-87C6-72DCCCBD12E9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{C2FA15AC-0F41-44BE-87C6-72DCCCBD12E9}"/>
   </bookViews>
   <sheets>
     <sheet name="operação simples" sheetId="1" r:id="rId1"/>
@@ -46,30 +46,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="52">
   <si>
     <t>FRETE</t>
   </si>
@@ -213,6 +191,18 @@
   </si>
   <si>
     <t>QUANTAS VENDAS DE PRODUTO A ?</t>
+  </si>
+  <si>
+    <t>1 / A / 25</t>
+  </si>
+  <si>
+    <t>2 / B / 30</t>
+  </si>
+  <si>
+    <t>3 / C / 45</t>
+  </si>
+  <si>
+    <t>4 / D / 10</t>
   </si>
 </sst>
 </file>
@@ -687,7 +677,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,14 +722,8 @@
       <c r="D2" s="3">
         <v>5</v>
       </c>
-      <c r="F2" s="3">
-        <f>B2+C2-D2</f>
-        <v>120</v>
-      </c>
-      <c r="H2" s="3" cm="1">
-        <f t="array" ref="H2">SUM(D2:D4/3)</f>
-        <v>18.333333333333336</v>
-      </c>
+      <c r="F2" s="3"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -754,10 +738,7 @@
       <c r="D3" s="3">
         <v>20</v>
       </c>
-      <c r="F3" s="3">
-        <f>B3+C3-D3</f>
-        <v>160</v>
-      </c>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -772,20 +753,14 @@
       <c r="D4" s="3">
         <v>30</v>
       </c>
-      <c r="F4" s="3">
-        <f>B4+C4-D4</f>
-        <v>215</v>
-      </c>
+      <c r="F4" s="3"/>
       <c r="H4" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F5" s="1"/>
-      <c r="H5" s="3">
-        <f>F7*1.1</f>
-        <v>544.5</v>
-      </c>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F6" s="4" t="s">
@@ -793,10 +768,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F7" s="3">
-        <f>SUM(F2:F4)</f>
-        <v>495</v>
-      </c>
+      <c r="F7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -807,7 +779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2562886E-03DF-4D9D-8D41-2B03DF130F68}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -1799,7 +1771,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="F3" sqref="F3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1847,14 +1819,8 @@
       <c r="E3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="8">
-        <f>VLOOKUP(E3,A1:B4,2,0)</f>
-        <v>2435</v>
-      </c>
-      <c r="G3" s="8">
-        <f>VLOOKUP(E3,A7:B10,2,0)</f>
-        <v>25</v>
-      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1919,7 +1885,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E2" sqref="E2:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1958,14 +1924,8 @@
       <c r="C2" s="3">
         <v>25</v>
       </c>
-      <c r="E2" s="3">
-        <f>SUM(B2:C2)</f>
-        <v>125</v>
-      </c>
-      <c r="G2" s="11">
-        <f>IF(E2&gt;=150,(E2*0.1),0)</f>
-        <v>0</v>
-      </c>
+      <c r="E2" s="3"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -1977,14 +1937,8 @@
       <c r="C3" s="3">
         <v>30</v>
       </c>
-      <c r="E3" s="3">
-        <f>SUM(B3:C3)</f>
-        <v>180</v>
-      </c>
-      <c r="G3" s="11">
-        <f>IF(E3&gt;=150,(E3*0.1),0)</f>
-        <v>18</v>
-      </c>
+      <c r="E3" s="3"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1996,14 +1950,8 @@
       <c r="C4" s="3">
         <v>45</v>
       </c>
-      <c r="E4" s="3">
-        <f>SUM(B4:C4)</f>
-        <v>245</v>
-      </c>
-      <c r="G4" s="11">
-        <f>IF(E4&gt;=150,(E4*0.1),0)</f>
-        <v>24.5</v>
-      </c>
+      <c r="E4" s="3"/>
+      <c r="G4" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -2104,7 +2052,7 @@
   <dimension ref="B5:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2134,9 +2082,8 @@
       <c r="D6" s="8">
         <v>25</v>
       </c>
-      <c r="F6" s="10" t="str">
-        <f>_xlfn.CONCAT(B6," / ",C6, " / ",D6)</f>
-        <v>1 / A / 25</v>
+      <c r="F6" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
@@ -2149,9 +2096,8 @@
       <c r="D7" s="8">
         <v>30</v>
       </c>
-      <c r="F7" s="10" t="str">
-        <f t="shared" ref="F7:F9" si="0">_xlfn.CONCAT(B7," / ",C7, " / ",D7)</f>
-        <v>2 / B / 30</v>
+      <c r="F7" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
@@ -2164,9 +2110,8 @@
       <c r="D8" s="8">
         <v>45</v>
       </c>
-      <c r="F8" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>3 / C / 45</v>
+      <c r="F8" s="10" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
@@ -2179,9 +2124,8 @@
       <c r="D9" s="8">
         <v>10</v>
       </c>
-      <c r="F9" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>4 / D / 10</v>
+      <c r="F9" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2193,8 +2137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A49C4A8D-65B2-4F20-B0DF-7837C3C43954}">
   <dimension ref="B4:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2241,10 +2185,7 @@
       <c r="F5" s="3">
         <v>5</v>
       </c>
-      <c r="I5" s="8">
-        <f>COUNTIF(B:B,"Produto A")</f>
-        <v>8</v>
-      </c>
+      <c r="I5" s="8"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
